--- a/数据整理/stocks/A股/上证主板/600998-九州通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600998-九州通.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001791</t>
+          <t>008269</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成绝对收益策略混合A</t>
+          <t>大成睿享混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.85</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3902</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001792</t>
+          <t>090007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成绝对收益策略混合C</t>
+          <t>大成策略回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>81.85</t>
+          <t>8.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>63.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3227</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>090007</t>
+          <t>090013</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成策略回报混合</t>
+          <t>大成竞争优势混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>63.13</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>61.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>3.94</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>5</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001266</t>
+          <t>161222</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银招财灵活配置混合</t>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.06</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>090013</t>
+          <t>121010</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成竞争优势混合</t>
+          <t>国投瑞银瑞源灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>61.32</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>72.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>121010</t>
+          <t>001791</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国投瑞银瑞源灵活配置混合</t>
+          <t>大成绝对收益策略混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>72.83</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>161222</t>
+          <t>001266</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+          <t>国投瑞银招财灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>81.50</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008269</t>
+          <t>008270</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成睿享混合A</t>
+          <t>大成睿享混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>86.51</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>3.93</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008270</t>
+          <t>001792</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成睿享混合C</t>
+          <t>大成绝对收益策略混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,25 +900,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009904</t>
+          <t>008269</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>民生加银中证200指数增强A</t>
+          <t>大成睿享混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4205</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009905</t>
+          <t>090007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>民生加银中证200指数增强C</t>
+          <t>大成策略回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>67.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3599</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -846,25 +976,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006323</t>
+          <t>090013</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>合煦智远嘉选混合A</t>
+          <t>大成竞争优势混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>79.29</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>67.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006324</t>
+          <t>161222</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>合煦智远嘉选混合C</t>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>79.29</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>63.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001266</t>
+          <t>121010</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银招财灵活配置混合</t>
+          <t>国投瑞银瑞源灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>63.67</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>57.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>090007</t>
+          <t>001266</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成策略回报混合</t>
+          <t>国投瑞银招财灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>67.28</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>63.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>090013</t>
+          <t>006323</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成竞争优势混合</t>
+          <t>合煦智远嘉选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>67.57</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>121010</t>
+          <t>008270</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国投瑞银瑞源灵活配置混合</t>
+          <t>大成睿享混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>57.03</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>161222</t>
+          <t>006324</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+          <t>合煦智远嘉选混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>63.81</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008269</t>
+          <t>009904</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大成睿享混合A</t>
+          <t>民生加银中证200指数增强A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>82.62</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008270</t>
+          <t>009905</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大成睿享混合C</t>
+          <t>民生加银中证200指数增强C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>82.62</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600998-九州通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600998-九州通.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1316,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3586</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3066</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>57.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600998-九州通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600998-九州通.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1638,4 +1639,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3610</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3084</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600998-九州通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600998-九州通.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2151,4 +2152,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600998-九州通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600998-九州通.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2160,7 +2161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2171,17 +2172,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2191,14 +2212,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.1</v>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0061</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2207,14 +2250,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9</v>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>58.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2938</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2223,14 +2288,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.19</v>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2239,13 +2326,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>51.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>51.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600998-九州通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600998-九州通.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2483,7 +2484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2494,17 +2495,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2514,14 +2535,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.57</v>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2530,14 +2573,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.1</v>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2546,14 +2611,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9</v>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2562,14 +2649,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.19</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6">
@@ -2578,13 +2787,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600998-九州通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600998-九州通.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,395 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008269</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成睿享混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.93</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3902</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>090007</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成策略回报混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>63.13</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3227</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>090013</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>61.32</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1013</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161222</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>81.50</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0858</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>121010</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>72.83</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0788</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001791</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成绝对收益策略混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>81.85</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0498</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001266</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国投瑞银招财灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>84.06</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0483</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008270</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成睿享混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>86.51</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0255</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001792</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成绝对收益策略混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>81.85</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -854,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -875,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -905,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008269</t>
+          <t>006323</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成睿享混合A</t>
+          <t>合煦智远嘉选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.62</t>
+          <t>79.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4205</t>
+          <t>0.0539</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -943,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>090007</t>
+          <t>501007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成策略回报混合</t>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>67.28</t>
+          <t>93.89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3599</t>
+          <t>0.0301</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -981,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>090013</t>
+          <t>006324</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成竞争优势混合</t>
+          <t>合煦智远嘉选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>67.57</t>
+          <t>79.45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1122</t>
+          <t>0.0206</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1019,302 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161222</t>
+          <t>501008</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>63.81</t>
+          <t>93.89</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0770</t>
+          <t>0.0099</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>121010</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>57.03</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0691</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001266</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国投瑞银招财灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>63.67</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0440</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006323</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>合煦智远嘉选混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>79.29</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0405</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008270</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成睿享混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>82.62</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0383</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006324</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>合煦智远嘉选混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>79.29</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009904</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>民生加银中证200指数增强A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009905</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>民生加银中证200指数增强C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1349,7 +817,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1389,22 +857,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>54.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.93</t>
+          <t>71.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3586</t>
+          <t>2.0061</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1427,22 +895,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>11.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.71</t>
+          <t>58.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3066</t>
+          <t>0.2938</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1465,26 +933,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.12</t>
+          <t>60.22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0956</t>
+          <t>0.0917</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1503,26 +971,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>57.59</t>
+          <t>51.03</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0394</t>
+          <t>0.0646</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1541,26 +1009,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>62.45</t>
+          <t>51.88</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0369</t>
+          <t>0.0572</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1579,22 +1047,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.93</t>
+          <t>71.62</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0352</t>
+          <t>0.0340</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1617,26 +1085,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>64.52</t>
+          <t>63.45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0280</t>
+          <t>0.0244</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2183,7 +1651,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2223,22 +1691,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>54.22</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>71.62</t>
+          <t>88.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.0061</t>
+          <t>0.3586</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2261,22 +1729,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.30</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>58.79</t>
+          <t>75.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2938</t>
+          <t>0.3066</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2299,26 +1767,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>60.22</t>
+          <t>76.12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0917</t>
+          <t>0.0956</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2337,26 +1805,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>51.03</t>
+          <t>57.59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0646</t>
+          <t>0.0394</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2375,26 +1843,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>51.88</t>
+          <t>62.45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0572</t>
+          <t>0.0369</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2413,22 +1881,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>71.62</t>
+          <t>88.93</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0340</t>
+          <t>0.0352</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2451,26 +1919,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>63.45</t>
+          <t>64.52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0244</t>
+          <t>0.0280</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2484,7 +1952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2505,7 +1973,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2535,36 +2003,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006323</t>
+          <t>008269</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>合煦智远嘉选混合A</t>
+          <t>大成睿享混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.45</t>
+          <t>82.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0539</t>
+          <t>0.4205</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2573,36 +2041,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501007</t>
+          <t>090007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+          <t>大成策略回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.89</t>
+          <t>67.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0301</t>
+          <t>0.3599</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2611,36 +2079,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006324</t>
+          <t>090013</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>合煦智远嘉选混合C</t>
+          <t>大成竞争优势混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.45</t>
+          <t>67.57</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0206</t>
+          <t>0.1122</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2649,36 +2117,302 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501008</t>
+          <t>161222</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.89</t>
+          <t>63.81</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0099</t>
+          <t>0.0770</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>57.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2692,128 +2426,394 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3902</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>63.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3227</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001791</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
-        <v>2.57</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.1</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001792</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600998-九州通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600998-九州通.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>2.57</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.1</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.19</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -583,6 +600,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159617</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证智选500价值稳健策略ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -790,7 +977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1112,7 +1299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1624,7 +1811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1946,7 +2133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2420,7 +2607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600998-九州通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600998-九州通.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.57</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.1</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>1.19</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -600,6 +617,478 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3166</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159617</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证智选500价值稳健策略ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014305</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014306</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>016935</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,7 +1258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -977,7 +1466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1299,7 +1788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1811,7 +2300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2133,7 +2622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2607,7 +3096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
